--- a/published-data/fonds-solidarite/fds-2020-12-28/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-28/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>200625</v>
+        <v>200626</v>
       </c>
       <c r="D122" t="n">
-        <v>291991884</v>
+        <v>291993322</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -8286,10 +8286,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>327333</v>
+        <v>327332</v>
       </c>
       <c r="D209" t="n">
-        <v>471154087</v>
+        <v>471152649</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -8742,10 +8742,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>49977</v>
+        <v>49978</v>
       </c>
       <c r="D221" t="n">
-        <v>113439535</v>
+        <v>113443751</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
